--- a/biology/Botanique/Cotonéaster_intermédiaire/Cotonéaster_intermédiaire.xlsx
+++ b/biology/Botanique/Cotonéaster_intermédiaire/Cotonéaster_intermédiaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_interm%C3%A9diaire</t>
+          <t>Cotonéaster_intermédiaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonéaster intermédiaire
 Cotoneaster intermedius ou Cotoneaster x intermedius, de nom commun Cotonéaster intermédiaire, est une espèce de plantes à fleurs de la famille des Rosaceae et du genre Cotoneaster. C'est un arbuste présent uniquement dans le sud-est de la France et à la frontière avec l'Italie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_interm%C3%A9diaire</t>
+          <t>Cotonéaster_intermédiaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le Cotonéaster intermédiaire mesure de 20 cm à 2 m. Ses feuilles sont velues sur la face supérieure (poils persistants). Sur un même individu, un certain nombre de feuilles sont assez triangulaires à l'apex. Le limbe foliaire n'est pas cordé à la base[5]. 
-Appareil reproducteur
-Le diamètre de la corolle est de 3–4 mm. Les fruits sont rouges, un peu en forme de poire et légèrement velus. La floraison a lieu de Mars à Octobre[5].
-Confusions possibles
-Cotoneaster intermedius peut être confondu avec Cotoneaster tomentosus, qui possède des feuilles moins triangulaires à limbe très légèrement cordiforme à la base et des fruits plus velus. Également avec Cotoneaster raboutensis qui est généralement glabre à la face supérieure et dont les fruits sont glabres[5].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotonéaster intermédiaire mesure de 20 cm à 2 m. Ses feuilles sont velues sur la face supérieure (poils persistants). Sur un même individu, un certain nombre de feuilles sont assez triangulaires à l'apex. Le limbe foliaire n'est pas cordé à la base. 
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster_interm%C3%A9diaire</t>
+          <t>Cotonéaster_intermédiaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +558,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diamètre de la corolle est de 3–4 mm. Les fruits sont rouges, un peu en forme de poire et légèrement velus. La floraison a lieu de Mars à Octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cotonéaster_intermédiaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster_interm%C3%A9diaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cotoneaster intermedius peut être confondu avec Cotoneaster tomentosus, qui possède des feuilles moins triangulaires à limbe très légèrement cordiforme à la base et des fruits plus velus. Également avec Cotoneaster raboutensis qui est généralement glabre à la face supérieure et dont les fruits sont glabres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotonéaster_intermédiaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster_interm%C3%A9diaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de lisières forestières mésophiles, d'une altitude de 500 à 1 800 mètres[5]. Il pousse de préférences sur des sols calcaires et secs[6].
-Le Cotonéaster intermédiaire est endémique du sud-ouest des Alpes et alentours, présent dans le sud-est de la France (Massif central, Alpes), et le nord-ouest de l'Italie[2],[7],[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de lisières forestières mésophiles, d'une altitude de 500 à 1 800 mètres. Il pousse de préférences sur des sols calcaires et secs.
+Le Cotonéaster intermédiaire est endémique du sud-ouest des Alpes et alentours, présent dans le sud-est de la France (Massif central, Alpes), et le nord-ouest de l'Italie.
 </t>
         </is>
       </c>
